--- a/Project4/Template+SEO+analysis.xlsx
+++ b/Project4/Template+SEO+analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15c141d6a280b1ea/Documents/Web Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15c141d6a280b1ea/Desktop/gitProjects/repos/Tasya-MainHub/Project4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{F6B60CDE-FC3A-4FD4-9433-8DA2B1A8BD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{466E1FE6-36C1-4838-9C68-C45939364879}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{F6B60CDE-FC3A-4FD4-9433-8DA2B1A8BD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE21A4A3-075D-4229-8377-3DAF0ACDF5E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="11520" windowHeight="7875" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="3000" yWindow="1545" windowWidth="17490" windowHeight="8640" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Explanation</t>
   </si>
@@ -80,9 +80,6 @@
     <t>the &lt;html&gt; tag doesn't specify a value for [lang] attribute</t>
   </si>
   <si>
-    <t>Image elements on second page do not have [alt] attributes</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -146,10 +143,16 @@
     <t>Home page has a meta description for search results</t>
   </si>
   <si>
-    <t>Images on home page have &lt;alt&gt; attributes for when pages don't load images</t>
-  </si>
-  <si>
     <t>Zoom hasn't been disabled on the page allowing users with low vision to zoom in as necessary</t>
+  </si>
+  <si>
+    <t>Keyword Usage</t>
+  </si>
+  <si>
+    <t>Keywords are in white and at 1px instead of spread thoughtfully throughout the page (Black Hat practice</t>
+  </si>
+  <si>
+    <t>Image elements on second page do not have [alt] attributes and home page has non-descriptive [alt] attributes</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,77 +609,77 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -685,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,96 +696,96 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
     </row>
